--- a/Automation_Practice/src/test/resources/TestData/VtigerCRMData.xlsx
+++ b/Automation_Practice/src/test/resources/TestData/VtigerCRMData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutusmita prusty\git\repository3\Automation_Practice\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D4009-54A7-4DEC-8AB3-C4EB3DF832D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB97BAA8-BD2B-47C3-B297-5B22725531F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6728488F-8714-4D0A-9B47-671FDB1CB8E3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>TC_ID</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>RJ</t>
+  </si>
+  <si>
+    <t>3458567890</t>
   </si>
 </sst>
 </file>
@@ -310,12 +313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -904,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2695DD4-135B-4191-9CF4-D18F379E21B9}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,8 +1004,8 @@
       <c r="K2" s="4">
         <v>37157</v>
       </c>
-      <c r="L2">
-        <v>3458567890</v>
+      <c r="L2" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="M2" t="s">
         <v>60</v>
